--- a/benchmarking/data/DWB/office/benchmarking_other_office.xlsx
+++ b/benchmarking/data/DWB/office/benchmarking_other_office.xlsx
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61.8</v>
+        <v>59.406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1775984320705857</v>
+        <v>0.08153019632480256</v>
       </c>
       <c r="D2" t="n">
-        <v>44.87607192993164</v>
+        <v>44.03011322021484</v>
       </c>
       <c r="E2" t="n">
-        <v>2.137201547622681</v>
+        <v>2.522733688354492</v>
       </c>
     </row>
   </sheetData>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.598</v>
+        <v>59.008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1443294002367233</v>
+        <v>0.08367334756552447</v>
       </c>
       <c r="D2" t="n">
-        <v>45.01640319824219</v>
+        <v>44.09442138671875</v>
       </c>
       <c r="E2" t="n">
-        <v>1.934705018997192</v>
+        <v>2.757520437240601</v>
       </c>
     </row>
   </sheetData>
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.406</v>
+        <v>58.802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1261836038726269</v>
+        <v>0.09891063121328901</v>
       </c>
       <c r="D2" t="n">
-        <v>44.98523712158203</v>
+        <v>44.03354263305664</v>
       </c>
       <c r="E2" t="n">
-        <v>2.14095664024353</v>
+        <v>2.718066453933716</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.40000000000001</v>
+        <v>58.602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0944309198572378</v>
+        <v>0.08159763233283737</v>
       </c>
       <c r="D2" t="n">
-        <v>44.86081314086914</v>
+        <v>44.04800033569336</v>
       </c>
       <c r="E2" t="n">
-        <v>2.103817701339722</v>
+        <v>2.486159086227417</v>
       </c>
     </row>
   </sheetData>
@@ -726,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.19800000000001</v>
+        <v>58.206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1403712820198685</v>
+        <v>0.104449164281466</v>
       </c>
       <c r="D2" t="n">
-        <v>44.97776794433594</v>
+        <v>44.06023025512695</v>
       </c>
       <c r="E2" t="n">
-        <v>2.106115341186523</v>
+        <v>3.022518396377563</v>
       </c>
     </row>
   </sheetData>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60.998</v>
+        <v>59.204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1548997619572556</v>
+        <v>0.09065446605128072</v>
       </c>
       <c r="D2" t="n">
-        <v>44.9578742980957</v>
+        <v>44.04232406616211</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029134035110474</v>
+        <v>2.690410137176514</v>
       </c>
     </row>
   </sheetData>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.196</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1030428269816236</v>
+        <v>0.1057391005016874</v>
       </c>
       <c r="D2" t="n">
-        <v>44.95588684082031</v>
+        <v>44.12663650512695</v>
       </c>
       <c r="E2" t="n">
-        <v>1.841925382614136</v>
+        <v>2.794360399246216</v>
       </c>
     </row>
   </sheetData>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.398</v>
+        <v>59.426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1151373772564214</v>
+        <v>0.08199018260387912</v>
       </c>
       <c r="D2" t="n">
-        <v>44.8754768371582</v>
+        <v>44.06924438476562</v>
       </c>
       <c r="E2" t="n">
-        <v>1.662320256233215</v>
+        <v>2.858579158782959</v>
       </c>
     </row>
   </sheetData>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62.798</v>
+        <v>59.20399999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1089082217121758</v>
+        <v>0.07396494877008329</v>
       </c>
       <c r="D2" t="n">
-        <v>45.29378890991211</v>
+        <v>44.05419158935547</v>
       </c>
       <c r="E2" t="n">
-        <v>1.91114068031311</v>
+        <v>2.759391069412231</v>
       </c>
     </row>
   </sheetData>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61.59800000000001</v>
+        <v>58.808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1521384206309625</v>
+        <v>0.1106513419919128</v>
       </c>
       <c r="D2" t="n">
-        <v>44.93787002563477</v>
+        <v>44.03324890136719</v>
       </c>
       <c r="E2" t="n">
-        <v>1.890294790267944</v>
+        <v>2.643290996551514</v>
       </c>
     </row>
   </sheetData>
